--- a/artfynd/A 744-2026 artfynd.xlsx
+++ b/artfynd/A 744-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131032534</v>
       </c>
       <c r="B2" t="n">
-        <v>83219</v>
+        <v>83223</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/artfynd/A 744-2026 artfynd.xlsx
+++ b/artfynd/A 744-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,53 +787,48 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>93973436</v>
+        <v>131063900</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>91771</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Fänstjärn, Vrm</t>
+          <t>Torsby kommun, Vrm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>408655.2795406351</v>
+        <v>408460</v>
       </c>
       <c r="R3" t="n">
-        <v>6703017.43169276</v>
+        <v>6702805</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -857,22 +852,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2021-05-25</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2021-05-25</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -887,27 +872,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Helena Malmestrand</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>93973440</v>
+        <v>131063898</v>
       </c>
       <c r="B4" t="n">
-        <v>77506</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>83223</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -915,37 +895,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Fänstjärn, Vrm</t>
+          <t>Torsby kommun, Vrm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>408663.2063216549</v>
+        <v>408462</v>
       </c>
       <c r="R4" t="n">
-        <v>6702998.47525198</v>
+        <v>6702815</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -969,22 +949,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-05-25</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-05-25</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2026-02-06</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -999,15 +969,2084 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>131066884</v>
+      </c>
+      <c r="B5" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Färntjärnen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>408461</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6702809</v>
+      </c>
+      <c r="S5" t="n">
+        <v>20</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>93973436</v>
+      </c>
+      <c r="B6" t="n">
+        <v>77506</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Fänstjärn, Vrm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>408655.2795406351</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6703017.43169276</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2021-05-25</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2021-05-25</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
           <t>Helena Malmestrand</t>
         </is>
       </c>
-      <c r="AX4" t="inlineStr">
+      <c r="AX6" t="inlineStr">
         <is>
           <t>Helena Malmestrand</t>
         </is>
       </c>
-      <c r="AY4" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>93973440</v>
+      </c>
+      <c r="B7" t="n">
+        <v>77506</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Fänstjärn, Vrm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>408663.2063216549</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6702998.47525198</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2021-05-25</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2021-05-25</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Helena Malmestrand</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>131066903</v>
+      </c>
+      <c r="B8" t="n">
+        <v>83215</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>308</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Brunpudrad nållav</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Chaenotheca gracillima</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Färntjärnen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>408780</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6703108</v>
+      </c>
+      <c r="S8" t="n">
+        <v>20</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>131066895</v>
+      </c>
+      <c r="B9" t="n">
+        <v>79000</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Färntjärnen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>408689</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6703023</v>
+      </c>
+      <c r="S9" t="n">
+        <v>20</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>131066878</v>
+      </c>
+      <c r="B10" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Färntjärnen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>408784</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6703105</v>
+      </c>
+      <c r="S10" t="n">
+        <v>20</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>131066880</v>
+      </c>
+      <c r="B11" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Färntjärnen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>408732</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6703060</v>
+      </c>
+      <c r="S11" t="n">
+        <v>20</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>131066883</v>
+      </c>
+      <c r="B12" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Färntjärnen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>408727</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6703044</v>
+      </c>
+      <c r="S12" t="n">
+        <v>20</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>131066888</v>
+      </c>
+      <c r="B13" t="n">
+        <v>91758</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>112</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Stjärntagging</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Asterodon ferruginosus</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Pat.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Färntjärnen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>408773</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6703124</v>
+      </c>
+      <c r="S13" t="n">
+        <v>20</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>131066896</v>
+      </c>
+      <c r="B14" t="n">
+        <v>79000</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Färntjärnen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>408691</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6703020</v>
+      </c>
+      <c r="S14" t="n">
+        <v>20</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>131066879</v>
+      </c>
+      <c r="B15" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Färntjärnen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>408778</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6703106</v>
+      </c>
+      <c r="S15" t="n">
+        <v>20</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>131066891</v>
+      </c>
+      <c r="B16" t="n">
+        <v>79267</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6434</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Nästlav</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Bryoria furcellata</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Färntjärnen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>408674</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6702994</v>
+      </c>
+      <c r="S16" t="n">
+        <v>20</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>131066876</v>
+      </c>
+      <c r="B17" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Färntjärnen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>408772</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6703123</v>
+      </c>
+      <c r="S17" t="n">
+        <v>20</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>131066881</v>
+      </c>
+      <c r="B18" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Färntjärnen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>408720</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6703065</v>
+      </c>
+      <c r="S18" t="n">
+        <v>20</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>131063926</v>
+      </c>
+      <c r="B19" t="n">
+        <v>83089</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Torsby kommun, Vrm</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>408603</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6702927</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Joakim Karlsson</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>131066882</v>
+      </c>
+      <c r="B20" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Färntjärnen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>408723</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6703050</v>
+      </c>
+      <c r="S20" t="n">
+        <v>20</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>131066886</v>
+      </c>
+      <c r="B21" t="n">
+        <v>57073</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>100138</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Tetrao urogallus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Färntjärnen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>408565</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6702903</v>
+      </c>
+      <c r="S21" t="n">
+        <v>20</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>131066892</v>
+      </c>
+      <c r="B22" t="n">
+        <v>81228</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1049</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Kortskaftad ärgspik</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Microcalicium ahlneri</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Tibell</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Färntjärnen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>408673</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6702997</v>
+      </c>
+      <c r="S22" t="n">
+        <v>20</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>131066877</v>
+      </c>
+      <c r="B23" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Färntjärnen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>408778</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6703117</v>
+      </c>
+      <c r="S23" t="n">
+        <v>20</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>131066899</v>
+      </c>
+      <c r="B24" t="n">
+        <v>83089</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1312</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Gammelgransskål</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Pseudographis pinicola</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Nyl.) Rehm</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Färntjärnen, Vrm</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>408724</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6703049</v>
+      </c>
+      <c r="S24" t="n">
+        <v>20</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Torsby</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Värmland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Norra Ny</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 744-2026 artfynd.xlsx
+++ b/artfynd/A 744-2026 artfynd.xlsx
@@ -1619,7 +1619,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131066880</v>
+        <v>131066883</v>
       </c>
       <c r="B11" t="n">
         <v>57884</v>
@@ -1662,10 +1662,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>408732</v>
+        <v>408727</v>
       </c>
       <c r="R11" t="n">
-        <v>6703060</v>
+        <v>6703044</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131066883</v>
+        <v>131066880</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -1772,10 +1772,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>408727</v>
+        <v>408732</v>
       </c>
       <c r="R12" t="n">
-        <v>6703044</v>
+        <v>6703060</v>
       </c>
       <c r="S12" t="n">
         <v>20</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131066888</v>
+        <v>131066896</v>
       </c>
       <c r="B13" t="n">
-        <v>91758</v>
+        <v>79000</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1850,21 +1850,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>112</v>
+        <v>6446</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>408773</v>
+        <v>408691</v>
       </c>
       <c r="R13" t="n">
-        <v>6703124</v>
+        <v>6703020</v>
       </c>
       <c r="S13" t="n">
         <v>20</v>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131066896</v>
+        <v>131066888</v>
       </c>
       <c r="B14" t="n">
-        <v>79000</v>
+        <v>91758</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1947,21 +1947,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6446</v>
+        <v>112</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>408691</v>
+        <v>408773</v>
       </c>
       <c r="R14" t="n">
-        <v>6703020</v>
+        <v>6703124</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2337,10 +2337,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131066881</v>
+        <v>131063926</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>83089</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2348,45 +2348,37 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Färntjärnen, Vrm</t>
+          <t>Torsby kommun, Vrm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>408720</v>
+        <v>408603</v>
       </c>
       <c r="R18" t="n">
-        <v>6703065</v>
+        <v>6702927</v>
       </c>
       <c r="S18" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2416,11 +2408,6 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2435,22 +2422,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Moa Björnberg dillner</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Moa Björnberg dillner</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131063926</v>
+        <v>131066881</v>
       </c>
       <c r="B19" t="n">
-        <v>83089</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2458,37 +2445,45 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Torsby kommun, Vrm</t>
+          <t>Färntjärnen, Vrm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>408603</v>
+        <v>408720</v>
       </c>
       <c r="R19" t="n">
-        <v>6702927</v>
+        <v>6703065</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2518,6 +2513,11 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2532,12 +2532,12 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Moa Björnberg dillner</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Moa Björnberg dillner</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
@@ -2856,10 +2856,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131066877</v>
+        <v>131066899</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>83089</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2867,21 +2867,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2891,10 +2891,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>408778</v>
+        <v>408724</v>
       </c>
       <c r="R23" t="n">
-        <v>6703117</v>
+        <v>6703049</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -2953,10 +2953,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131066899</v>
+        <v>131066877</v>
       </c>
       <c r="B24" t="n">
-        <v>83089</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2964,21 +2964,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -2988,10 +2988,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>408724</v>
+        <v>408778</v>
       </c>
       <c r="R24" t="n">
-        <v>6703049</v>
+        <v>6703117</v>
       </c>
       <c r="S24" t="n">
         <v>20</v>

--- a/artfynd/A 744-2026 artfynd.xlsx
+++ b/artfynd/A 744-2026 artfynd.xlsx
@@ -2240,10 +2240,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131066876</v>
+        <v>131063926</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>83089</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2251,37 +2251,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Färntjärnen, Vrm</t>
+          <t>Torsby kommun, Vrm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>408772</v>
+        <v>408603</v>
       </c>
       <c r="R17" t="n">
-        <v>6703123</v>
+        <v>6702927</v>
       </c>
       <c r="S17" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2325,22 +2325,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Moa Björnberg dillner</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Moa Björnberg dillner</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131063926</v>
+        <v>131066881</v>
       </c>
       <c r="B18" t="n">
-        <v>83089</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2348,37 +2348,45 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Torsby kommun, Vrm</t>
+          <t>Färntjärnen, Vrm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>408603</v>
+        <v>408720</v>
       </c>
       <c r="R18" t="n">
-        <v>6702927</v>
+        <v>6703065</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2408,6 +2416,11 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2422,19 +2435,19 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Moa Björnberg dillner</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Moa Björnberg dillner</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131066881</v>
+        <v>131066882</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2477,10 +2490,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>408720</v>
+        <v>408723</v>
       </c>
       <c r="R19" t="n">
-        <v>6703065</v>
+        <v>6703050</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2544,32 +2557,32 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131066882</v>
+        <v>131066886</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>57073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>100138</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2577,7 +2590,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -2587,10 +2600,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>408723</v>
+        <v>408565</v>
       </c>
       <c r="R20" t="n">
-        <v>6703050</v>
+        <v>6702903</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2623,11 +2636,6 @@
       <c r="AA20" t="inlineStr">
         <is>
           <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2654,53 +2662,45 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131066886</v>
+        <v>131066892</v>
       </c>
       <c r="B21" t="n">
-        <v>57073</v>
+        <v>81228</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100138</v>
+        <v>1049</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Färntjärnen, Vrm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>408565</v>
+        <v>408673</v>
       </c>
       <c r="R21" t="n">
-        <v>6702903</v>
+        <v>6702997</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2759,10 +2759,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131066892</v>
+        <v>131066899</v>
       </c>
       <c r="B22" t="n">
-        <v>81228</v>
+        <v>83089</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2770,21 +2770,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1049</v>
+        <v>1312</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2794,10 +2794,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>408673</v>
+        <v>408724</v>
       </c>
       <c r="R22" t="n">
-        <v>6702997</v>
+        <v>6703049</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -2856,10 +2856,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131066899</v>
+        <v>131066876</v>
       </c>
       <c r="B23" t="n">
-        <v>83089</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2867,34 +2867,42 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Färntjärnen, Vrm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>408724</v>
+        <v>408772</v>
       </c>
       <c r="R23" t="n">
-        <v>6703049</v>
+        <v>6703123</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -2927,6 +2935,11 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2982,6 +2995,14 @@
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Färntjärnen, Vrm</t>
@@ -3024,6 +3045,11 @@
       <c r="AA24" t="inlineStr">
         <is>
           <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD24" t="b">

--- a/artfynd/A 744-2026 artfynd.xlsx
+++ b/artfynd/A 744-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY24"/>
+  <dimension ref="A1:AY23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1936,10 +1936,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131066888</v>
+        <v>131066879</v>
       </c>
       <c r="B14" t="n">
-        <v>91758</v>
+        <v>57884</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1947,34 +1947,42 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>112</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Färntjärnen, Vrm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>408773</v>
+        <v>408778</v>
       </c>
       <c r="R14" t="n">
-        <v>6703124</v>
+        <v>6703106</v>
       </c>
       <c r="S14" t="n">
         <v>20</v>
@@ -2007,6 +2015,11 @@
       <c r="AA14" t="inlineStr">
         <is>
           <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2033,53 +2046,45 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131066879</v>
+        <v>131066891</v>
       </c>
       <c r="B15" t="n">
-        <v>57884</v>
+        <v>79267</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6434</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Färntjärnen, Vrm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>408778</v>
+        <v>408674</v>
       </c>
       <c r="R15" t="n">
-        <v>6703106</v>
+        <v>6702994</v>
       </c>
       <c r="S15" t="n">
         <v>20</v>
@@ -2112,11 +2117,6 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2143,48 +2143,48 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131066891</v>
+        <v>131063926</v>
       </c>
       <c r="B16" t="n">
-        <v>79267</v>
+        <v>83089</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6434</v>
+        <v>1312</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Färntjärnen, Vrm</t>
+          <t>Torsby kommun, Vrm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>408674</v>
+        <v>408603</v>
       </c>
       <c r="R16" t="n">
-        <v>6702994</v>
+        <v>6702927</v>
       </c>
       <c r="S16" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2228,22 +2228,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Moa Björnberg dillner</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Moa Björnberg dillner</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131063926</v>
+        <v>131066881</v>
       </c>
       <c r="B17" t="n">
-        <v>83089</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2251,37 +2251,45 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Torsby kommun, Vrm</t>
+          <t>Färntjärnen, Vrm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>408603</v>
+        <v>408720</v>
       </c>
       <c r="R17" t="n">
-        <v>6702927</v>
+        <v>6703065</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2311,6 +2319,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2325,19 +2338,19 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Moa Björnberg dillner</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Moa Björnberg dillner</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131066881</v>
+        <v>131066882</v>
       </c>
       <c r="B18" t="n">
         <v>57884</v>
@@ -2380,10 +2393,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>408720</v>
+        <v>408723</v>
       </c>
       <c r="R18" t="n">
-        <v>6703065</v>
+        <v>6703050</v>
       </c>
       <c r="S18" t="n">
         <v>20</v>
@@ -2447,32 +2460,32 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131066882</v>
+        <v>131066886</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>57073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>100138</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2480,7 +2493,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -2490,10 +2503,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>408723</v>
+        <v>408565</v>
       </c>
       <c r="R19" t="n">
-        <v>6703050</v>
+        <v>6702903</v>
       </c>
       <c r="S19" t="n">
         <v>20</v>
@@ -2526,11 +2539,6 @@
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2557,53 +2565,45 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131066886</v>
+        <v>131066892</v>
       </c>
       <c r="B20" t="n">
-        <v>57073</v>
+        <v>81228</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100138</v>
+        <v>1049</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Färntjärnen, Vrm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>408565</v>
+        <v>408673</v>
       </c>
       <c r="R20" t="n">
-        <v>6702903</v>
+        <v>6702997</v>
       </c>
       <c r="S20" t="n">
         <v>20</v>
@@ -2662,10 +2662,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131066892</v>
+        <v>131066899</v>
       </c>
       <c r="B21" t="n">
-        <v>81228</v>
+        <v>83089</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2673,21 +2673,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1049</v>
+        <v>1312</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2697,10 +2697,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>408673</v>
+        <v>408724</v>
       </c>
       <c r="R21" t="n">
-        <v>6702997</v>
+        <v>6703049</v>
       </c>
       <c r="S21" t="n">
         <v>20</v>
@@ -2759,10 +2759,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131066899</v>
+        <v>131066876</v>
       </c>
       <c r="B22" t="n">
-        <v>83089</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2770,34 +2770,42 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Färntjärnen, Vrm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>408724</v>
+        <v>408772</v>
       </c>
       <c r="R22" t="n">
-        <v>6703049</v>
+        <v>6703123</v>
       </c>
       <c r="S22" t="n">
         <v>20</v>
@@ -2830,6 +2838,11 @@
       <c r="AA22" t="inlineStr">
         <is>
           <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2856,7 +2869,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131066876</v>
+        <v>131066877</v>
       </c>
       <c r="B23" t="n">
         <v>57884</v>
@@ -2899,10 +2912,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>408772</v>
+        <v>408778</v>
       </c>
       <c r="R23" t="n">
-        <v>6703123</v>
+        <v>6703117</v>
       </c>
       <c r="S23" t="n">
         <v>20</v>
@@ -2963,116 +2976,6 @@
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>131066877</v>
-      </c>
-      <c r="B24" t="n">
-        <v>57884</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>100109</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>Färntjärnen, Vrm</t>
-        </is>
-      </c>
-      <c r="Q24" t="n">
-        <v>408778</v>
-      </c>
-      <c r="R24" t="n">
-        <v>6703117</v>
-      </c>
-      <c r="S24" t="n">
-        <v>20</v>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>Värmland</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>Torsby</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>Värmland</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>Norra Ny</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
-        </is>
-      </c>
-      <c r="AD24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT24" t="inlineStr"/>
-      <c r="AW24" t="inlineStr">
-        <is>
-          <t>Moa Björnberg dillner</t>
-        </is>
-      </c>
-      <c r="AX24" t="inlineStr">
-        <is>
-          <t>Moa Björnberg dillner</t>
-        </is>
-      </c>
-      <c r="AY24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 744-2026 artfynd.xlsx
+++ b/artfynd/A 744-2026 artfynd.xlsx
@@ -1509,7 +1509,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131066878</v>
+        <v>131066883</v>
       </c>
       <c r="B10" t="n">
         <v>57884</v>
@@ -1552,10 +1552,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>408784</v>
+        <v>408727</v>
       </c>
       <c r="R10" t="n">
-        <v>6703105</v>
+        <v>6703044</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131066883</v>
+        <v>131066878</v>
       </c>
       <c r="B11" t="n">
         <v>57884</v>
@@ -1662,10 +1662,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>408727</v>
+        <v>408784</v>
       </c>
       <c r="R11" t="n">
-        <v>6703044</v>
+        <v>6703105</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -2143,10 +2143,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131063926</v>
+        <v>131066881</v>
       </c>
       <c r="B16" t="n">
-        <v>83089</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2154,37 +2154,45 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Torsby kommun, Vrm</t>
+          <t>Färntjärnen, Vrm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>408603</v>
+        <v>408720</v>
       </c>
       <c r="R16" t="n">
-        <v>6702927</v>
+        <v>6703065</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2214,6 +2222,11 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2228,22 +2241,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Moa Björnberg dillner</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Moa Björnberg dillner</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131066881</v>
+        <v>131063926</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>83089</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2251,45 +2264,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Färntjärnen, Vrm</t>
+          <t>Torsby kommun, Vrm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>408720</v>
+        <v>408603</v>
       </c>
       <c r="R17" t="n">
-        <v>6703065</v>
+        <v>6702927</v>
       </c>
       <c r="S17" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2319,11 +2324,6 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2338,12 +2338,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Moa Björnberg dillner</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Moa Björnberg dillner</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>

--- a/artfynd/A 744-2026 artfynd.xlsx
+++ b/artfynd/A 744-2026 artfynd.xlsx
@@ -1509,7 +1509,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131066883</v>
+        <v>131066878</v>
       </c>
       <c r="B10" t="n">
         <v>57884</v>
@@ -1552,10 +1552,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>408727</v>
+        <v>408784</v>
       </c>
       <c r="R10" t="n">
-        <v>6703044</v>
+        <v>6703105</v>
       </c>
       <c r="S10" t="n">
         <v>20</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131066878</v>
+        <v>131066883</v>
       </c>
       <c r="B11" t="n">
         <v>57884</v>
@@ -1662,10 +1662,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>408784</v>
+        <v>408727</v>
       </c>
       <c r="R11" t="n">
-        <v>6703105</v>
+        <v>6703044</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -2143,10 +2143,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131066881</v>
+        <v>131063926</v>
       </c>
       <c r="B16" t="n">
-        <v>57884</v>
+        <v>83089</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2154,45 +2154,37 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Färntjärnen, Vrm</t>
+          <t>Torsby kommun, Vrm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>408720</v>
+        <v>408603</v>
       </c>
       <c r="R16" t="n">
-        <v>6703065</v>
+        <v>6702927</v>
       </c>
       <c r="S16" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2222,11 +2214,6 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2241,22 +2228,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Moa Björnberg dillner</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Moa Björnberg dillner</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131063926</v>
+        <v>131066881</v>
       </c>
       <c r="B17" t="n">
-        <v>83089</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2264,37 +2251,45 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Torsby kommun, Vrm</t>
+          <t>Färntjärnen, Vrm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>408603</v>
+        <v>408720</v>
       </c>
       <c r="R17" t="n">
-        <v>6702927</v>
+        <v>6703065</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2324,6 +2319,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2338,12 +2338,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Moa Björnberg dillner</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Moa Björnberg dillner</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>

--- a/artfynd/A 744-2026 artfynd.xlsx
+++ b/artfynd/A 744-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131032534</v>
       </c>
       <c r="B2" t="n">
-        <v>83223</v>
+        <v>83224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>131063900</v>
       </c>
       <c r="B3" t="n">
-        <v>91771</v>
+        <v>91772</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>131063898</v>
       </c>
       <c r="B4" t="n">
-        <v>83223</v>
+        <v>83224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>131066903</v>
       </c>
       <c r="B8" t="n">
-        <v>83215</v>
+        <v>83216</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>131066895</v>
       </c>
       <c r="B9" t="n">
-        <v>79000</v>
+        <v>79001</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>131066896</v>
       </c>
       <c r="B13" t="n">
-        <v>79000</v>
+        <v>79001</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>131066891</v>
       </c>
       <c r="B15" t="n">
-        <v>79267</v>
+        <v>79268</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2146,7 +2146,7 @@
         <v>131063926</v>
       </c>
       <c r="B16" t="n">
-        <v>83089</v>
+        <v>83090</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>131066892</v>
       </c>
       <c r="B20" t="n">
-        <v>81228</v>
+        <v>81229</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>131066899</v>
       </c>
       <c r="B21" t="n">
-        <v>83089</v>
+        <v>83090</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>

--- a/artfynd/A 744-2026 artfynd.xlsx
+++ b/artfynd/A 744-2026 artfynd.xlsx
@@ -2143,10 +2143,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131063926</v>
+        <v>131066881</v>
       </c>
       <c r="B16" t="n">
-        <v>83090</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2154,37 +2154,45 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Torsby kommun, Vrm</t>
+          <t>Färntjärnen, Vrm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>408603</v>
+        <v>408720</v>
       </c>
       <c r="R16" t="n">
-        <v>6702927</v>
+        <v>6703065</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2214,6 +2222,11 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2228,22 +2241,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Moa Björnberg dillner</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Moa Björnberg dillner</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131066881</v>
+        <v>131063926</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>83090</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2251,45 +2264,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Färntjärnen, Vrm</t>
+          <t>Torsby kommun, Vrm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>408720</v>
+        <v>408603</v>
       </c>
       <c r="R17" t="n">
-        <v>6703065</v>
+        <v>6702927</v>
       </c>
       <c r="S17" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2319,11 +2324,6 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2338,12 +2338,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Moa Björnberg dillner</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Moa Björnberg dillner</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>

--- a/artfynd/A 744-2026 artfynd.xlsx
+++ b/artfynd/A 744-2026 artfynd.xlsx
@@ -2143,10 +2143,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131066881</v>
+        <v>131063926</v>
       </c>
       <c r="B16" t="n">
-        <v>57884</v>
+        <v>83090</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2154,45 +2154,37 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Färntjärnen, Vrm</t>
+          <t>Torsby kommun, Vrm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>408720</v>
+        <v>408603</v>
       </c>
       <c r="R16" t="n">
-        <v>6703065</v>
+        <v>6702927</v>
       </c>
       <c r="S16" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2222,11 +2214,6 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2241,22 +2228,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Moa Björnberg dillner</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Moa Björnberg dillner</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131063926</v>
+        <v>131066881</v>
       </c>
       <c r="B17" t="n">
-        <v>83090</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2264,37 +2251,45 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Torsby kommun, Vrm</t>
+          <t>Färntjärnen, Vrm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>408603</v>
+        <v>408720</v>
       </c>
       <c r="R17" t="n">
-        <v>6702927</v>
+        <v>6703065</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2324,6 +2319,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2338,12 +2338,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Moa Björnberg dillner</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Moa Björnberg dillner</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>

--- a/artfynd/A 744-2026 artfynd.xlsx
+++ b/artfynd/A 744-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131032534</v>
       </c>
       <c r="B2" t="n">
-        <v>83224</v>
+        <v>83225</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>131063900</v>
       </c>
       <c r="B3" t="n">
-        <v>91772</v>
+        <v>91773</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>131063898</v>
       </c>
       <c r="B4" t="n">
-        <v>83224</v>
+        <v>83225</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
         <v>131066903</v>
       </c>
       <c r="B8" t="n">
-        <v>83216</v>
+        <v>83217</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>131066895</v>
       </c>
       <c r="B9" t="n">
-        <v>79001</v>
+        <v>79002</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>131066896</v>
       </c>
       <c r="B13" t="n">
-        <v>79001</v>
+        <v>79002</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2049,7 +2049,7 @@
         <v>131066891</v>
       </c>
       <c r="B15" t="n">
-        <v>79268</v>
+        <v>79269</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2143,10 +2143,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131066881</v>
+        <v>131063926</v>
       </c>
       <c r="B16" t="n">
-        <v>57884</v>
+        <v>83091</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2154,45 +2154,37 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Färntjärnen, Vrm</t>
+          <t>Torsby kommun, Vrm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>408720</v>
+        <v>408603</v>
       </c>
       <c r="R16" t="n">
-        <v>6703065</v>
+        <v>6702927</v>
       </c>
       <c r="S16" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2222,11 +2214,6 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-02-06</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2241,22 +2228,22 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Moa Björnberg dillner</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Moa Björnberg dillner</t>
+          <t>Joakim Karlsson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131063926</v>
+        <v>131066881</v>
       </c>
       <c r="B17" t="n">
-        <v>83090</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2264,37 +2251,45 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Torsby kommun, Vrm</t>
+          <t>Färntjärnen, Vrm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>408603</v>
+        <v>408720</v>
       </c>
       <c r="R17" t="n">
-        <v>6702927</v>
+        <v>6703065</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2324,6 +2319,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-02-06</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2338,12 +2338,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Moa Björnberg dillner</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Joakim Karlsson</t>
+          <t>Moa Björnberg dillner</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
@@ -2568,7 +2568,7 @@
         <v>131066892</v>
       </c>
       <c r="B20" t="n">
-        <v>81229</v>
+        <v>81230</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
         <v>131066899</v>
       </c>
       <c r="B21" t="n">
-        <v>83090</v>
+        <v>83091</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
